--- a/dy_qT/expdata/10004.xlsx
+++ b/dy_qT/expdata/10004.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/z_qT/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005F392F-2F2C-B04B-A271-81A68038284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0416F4D-93DF-7F46-AD62-471263612CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
   <si>
     <t>FiducialCuts</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>etaMax</t>
-  </si>
-  <si>
-    <t>stat_plus</t>
-  </si>
-  <si>
-    <t>stat_minus</t>
   </si>
   <si>
     <t>Q</t>
@@ -99,12 +93,6 @@
     <t>1/GeV</t>
   </si>
   <si>
-    <t>%syst_c</t>
-  </si>
-  <si>
-    <t>stat_u</t>
-  </si>
-  <si>
     <t>beam</t>
   </si>
   <si>
@@ -121,6 +109,15 @@
   </si>
   <si>
     <t>pp-&gt;Z/gamma*-&gt;l+ l-</t>
+  </si>
+  <si>
+    <t>tot_plus</t>
+  </si>
+  <si>
+    <t>tot_minus</t>
+  </si>
+  <si>
+    <t>tot_u</t>
   </si>
 </sst>
 </file>
@@ -969,92 +966,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
       </c>
       <c r="V1" t="s">
         <v>20</v>
       </c>
       <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1099,20 +1093,20 @@
         <f>MAX(L2,ABS(M2))</f>
         <v>1.4974000000000001E-3</v>
       </c>
-      <c r="O2">
-        <v>2.5</v>
-      </c>
-      <c r="P2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
       <c r="Q2">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R2">
-        <v>-2.4</v>
-      </c>
-      <c r="S2">
         <v>2.4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
       </c>
       <c r="T2" t="s">
         <v>17</v>
@@ -1124,16 +1118,13 @@
         <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1178,20 +1169,20 @@
         <f t="shared" ref="N3:N35" si="0">MAX(L3,ABS(M3))</f>
         <v>2.3343000000000001E-3</v>
       </c>
-      <c r="O3">
-        <v>2.5</v>
-      </c>
-      <c r="P3" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
       <c r="Q3">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R3">
-        <v>-2.4</v>
-      </c>
-      <c r="S3">
         <v>2.4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
       </c>
       <c r="T3" t="s">
         <v>17</v>
@@ -1203,16 +1194,13 @@
         <v>21</v>
       </c>
       <c r="W3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="1">SQRT(169000000)</f>
         <v>13000</v>
@@ -1257,20 +1245,20 @@
         <f t="shared" si="0"/>
         <v>2.3567000000000002E-3</v>
       </c>
-      <c r="O4">
-        <v>2.5</v>
-      </c>
-      <c r="P4" t="b">
+      <c r="O4" t="b">
         <v>1</v>
       </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
       <c r="Q4">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R4">
-        <v>-2.4</v>
-      </c>
-      <c r="S4">
         <v>2.4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
       </c>
       <c r="T4" t="s">
         <v>17</v>
@@ -1282,16 +1270,13 @@
         <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X4" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1336,20 +1321,20 @@
         <f t="shared" si="0"/>
         <v>2.1072E-3</v>
       </c>
-      <c r="O5">
-        <v>2.5</v>
-      </c>
-      <c r="P5" t="b">
+      <c r="O5" t="b">
         <v>1</v>
       </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
       <c r="Q5">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R5">
-        <v>-2.4</v>
-      </c>
-      <c r="S5">
         <v>2.4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
       </c>
       <c r="T5" t="s">
         <v>17</v>
@@ -1361,16 +1346,13 @@
         <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X5" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1415,20 +1397,20 @@
         <f t="shared" si="0"/>
         <v>1.9185999999999999E-3</v>
       </c>
-      <c r="O6">
-        <v>2.5</v>
-      </c>
-      <c r="P6" t="b">
+      <c r="O6" t="b">
         <v>1</v>
       </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
       <c r="Q6">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R6">
-        <v>-2.4</v>
-      </c>
-      <c r="S6">
         <v>2.4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
       </c>
       <c r="T6" t="s">
         <v>17</v>
@@ -1440,16 +1422,13 @@
         <v>21</v>
       </c>
       <c r="W6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X6" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1494,20 +1473,20 @@
         <f t="shared" si="0"/>
         <v>1.7872000000000001E-3</v>
       </c>
-      <c r="O7">
-        <v>2.5</v>
-      </c>
-      <c r="P7" t="b">
+      <c r="O7" t="b">
         <v>1</v>
       </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
       <c r="Q7">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R7">
-        <v>-2.4</v>
-      </c>
-      <c r="S7">
         <v>2.4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
       </c>
       <c r="T7" t="s">
         <v>17</v>
@@ -1519,16 +1498,13 @@
         <v>21</v>
       </c>
       <c r="W7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X7" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1573,20 +1549,20 @@
         <f t="shared" si="0"/>
         <v>1.6727999999999999E-3</v>
       </c>
-      <c r="O8">
-        <v>2.5</v>
-      </c>
-      <c r="P8" t="b">
+      <c r="O8" t="b">
         <v>1</v>
       </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
       <c r="Q8">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R8">
-        <v>-2.4</v>
-      </c>
-      <c r="S8">
         <v>2.4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
       </c>
       <c r="T8" t="s">
         <v>17</v>
@@ -1598,16 +1574,13 @@
         <v>21</v>
       </c>
       <c r="W8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X8" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1652,20 +1625,20 @@
         <f t="shared" si="0"/>
         <v>1.5416E-3</v>
       </c>
-      <c r="O9">
-        <v>2.5</v>
-      </c>
-      <c r="P9" t="b">
+      <c r="O9" t="b">
         <v>1</v>
       </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
       <c r="Q9">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R9">
-        <v>-2.4</v>
-      </c>
-      <c r="S9">
         <v>2.4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
       </c>
       <c r="T9" t="s">
         <v>17</v>
@@ -1677,16 +1650,13 @@
         <v>21</v>
       </c>
       <c r="W9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X9" t="s">
         <v>25</v>
       </c>
-      <c r="Y9" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1731,20 +1701,20 @@
         <f t="shared" si="0"/>
         <v>1.3849999999999999E-3</v>
       </c>
-      <c r="O10">
-        <v>2.5</v>
-      </c>
-      <c r="P10" t="b">
+      <c r="O10" t="b">
         <v>1</v>
       </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
       <c r="Q10">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R10">
-        <v>-2.4</v>
-      </c>
-      <c r="S10">
         <v>2.4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>15</v>
       </c>
       <c r="T10" t="s">
         <v>17</v>
@@ -1756,16 +1726,13 @@
         <v>21</v>
       </c>
       <c r="W10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X10" t="s">
         <v>25</v>
       </c>
-      <c r="Y10" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1810,20 +1777,20 @@
         <f t="shared" si="0"/>
         <v>1.2507E-3</v>
       </c>
-      <c r="O11">
-        <v>2.5</v>
-      </c>
-      <c r="P11" t="b">
+      <c r="O11" t="b">
         <v>1</v>
       </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
       <c r="Q11">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R11">
-        <v>-2.4</v>
-      </c>
-      <c r="S11">
         <v>2.4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
       </c>
       <c r="T11" t="s">
         <v>17</v>
@@ -1835,16 +1802,13 @@
         <v>21</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X11" t="s">
         <v>25</v>
       </c>
-      <c r="Y11" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1889,20 +1853,20 @@
         <f t="shared" si="0"/>
         <v>1.1368000000000001E-3</v>
       </c>
-      <c r="O12">
-        <v>2.5</v>
-      </c>
-      <c r="P12" t="b">
+      <c r="O12" t="b">
         <v>1</v>
       </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
       <c r="Q12">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R12">
-        <v>-2.4</v>
-      </c>
-      <c r="S12">
         <v>2.4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
       </c>
       <c r="T12" t="s">
         <v>17</v>
@@ -1914,16 +1878,13 @@
         <v>21</v>
       </c>
       <c r="W12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X12" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1968,20 +1929,20 @@
         <f t="shared" si="0"/>
         <v>1.0468000000000001E-3</v>
       </c>
-      <c r="O13">
-        <v>2.5</v>
-      </c>
-      <c r="P13" t="b">
+      <c r="O13" t="b">
         <v>1</v>
       </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
       <c r="Q13">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R13">
-        <v>-2.4</v>
-      </c>
-      <c r="S13">
         <v>2.4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
       </c>
       <c r="T13" t="s">
         <v>17</v>
@@ -1993,16 +1954,13 @@
         <v>21</v>
       </c>
       <c r="W13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X13" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2047,20 +2005,20 @@
         <f t="shared" si="0"/>
         <v>9.4709999999999998E-4</v>
       </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14" t="b">
+      <c r="O14" t="b">
         <v>1</v>
       </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
       <c r="Q14">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R14">
-        <v>-2.4</v>
-      </c>
-      <c r="S14">
         <v>2.4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>15</v>
       </c>
       <c r="T14" t="s">
         <v>17</v>
@@ -2072,16 +2030,13 @@
         <v>21</v>
       </c>
       <c r="W14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X14" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2126,20 +2081,20 @@
         <f t="shared" si="0"/>
         <v>8.2782999999999999E-4</v>
       </c>
-      <c r="O15">
-        <v>2.5</v>
-      </c>
-      <c r="P15" t="b">
+      <c r="O15" t="b">
         <v>1</v>
       </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
       <c r="Q15">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R15">
-        <v>-2.4</v>
-      </c>
-      <c r="S15">
         <v>2.4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
       </c>
       <c r="T15" t="s">
         <v>17</v>
@@ -2151,16 +2106,13 @@
         <v>21</v>
       </c>
       <c r="W15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X15" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2205,20 +2157,20 @@
         <f t="shared" si="0"/>
         <v>6.9297E-4</v>
       </c>
-      <c r="O16">
-        <v>2.5</v>
-      </c>
-      <c r="P16" t="b">
+      <c r="O16" t="b">
         <v>1</v>
       </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
       <c r="Q16">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R16">
-        <v>-2.4</v>
-      </c>
-      <c r="S16">
         <v>2.4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>15</v>
       </c>
       <c r="T16" t="s">
         <v>17</v>
@@ -2230,16 +2182,13 @@
         <v>21</v>
       </c>
       <c r="W16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X16" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2284,20 +2233,20 @@
         <f t="shared" si="0"/>
         <v>5.6101999999999996E-4</v>
       </c>
-      <c r="O17">
-        <v>2.5</v>
-      </c>
-      <c r="P17" t="b">
+      <c r="O17" t="b">
         <v>1</v>
       </c>
+      <c r="P17">
+        <v>25</v>
+      </c>
       <c r="Q17">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R17">
-        <v>-2.4</v>
-      </c>
-      <c r="S17">
         <v>2.4</v>
+      </c>
+      <c r="S17" t="s">
+        <v>15</v>
       </c>
       <c r="T17" t="s">
         <v>17</v>
@@ -2309,16 +2258,13 @@
         <v>21</v>
       </c>
       <c r="W17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X17" t="s">
         <v>25</v>
       </c>
-      <c r="Y17" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2363,20 +2309,20 @@
         <f t="shared" si="0"/>
         <v>4.6825000000000002E-4</v>
       </c>
-      <c r="O18">
-        <v>2.5</v>
-      </c>
-      <c r="P18" t="b">
+      <c r="O18" t="b">
         <v>1</v>
       </c>
+      <c r="P18">
+        <v>25</v>
+      </c>
       <c r="Q18">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R18">
-        <v>-2.4</v>
-      </c>
-      <c r="S18">
         <v>2.4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>15</v>
       </c>
       <c r="T18" t="s">
         <v>17</v>
@@ -2388,16 +2334,13 @@
         <v>21</v>
       </c>
       <c r="W18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X18" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2442,20 +2385,20 @@
         <f t="shared" si="0"/>
         <v>3.7865000000000002E-4</v>
       </c>
-      <c r="O19">
-        <v>2.5</v>
-      </c>
-      <c r="P19" t="b">
+      <c r="O19" t="b">
         <v>1</v>
       </c>
+      <c r="P19">
+        <v>25</v>
+      </c>
       <c r="Q19">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R19">
-        <v>-2.4</v>
-      </c>
-      <c r="S19">
         <v>2.4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>15</v>
       </c>
       <c r="T19" t="s">
         <v>17</v>
@@ -2467,16 +2410,13 @@
         <v>21</v>
       </c>
       <c r="W19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X19" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2521,20 +2461,20 @@
         <f t="shared" si="0"/>
         <v>3.0149000000000002E-4</v>
       </c>
-      <c r="O20">
-        <v>2.5</v>
-      </c>
-      <c r="P20" t="b">
+      <c r="O20" t="b">
         <v>1</v>
       </c>
+      <c r="P20">
+        <v>25</v>
+      </c>
       <c r="Q20">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R20">
-        <v>-2.4</v>
-      </c>
-      <c r="S20">
         <v>2.4</v>
+      </c>
+      <c r="S20" t="s">
+        <v>15</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -2546,16 +2486,13 @@
         <v>21</v>
       </c>
       <c r="W20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X20" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2600,20 +2537,20 @@
         <f t="shared" si="0"/>
         <v>2.3492000000000001E-4</v>
       </c>
-      <c r="O21">
-        <v>2.5</v>
-      </c>
-      <c r="P21" t="b">
+      <c r="O21" t="b">
         <v>1</v>
       </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
       <c r="Q21">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R21">
-        <v>-2.4</v>
-      </c>
-      <c r="S21">
         <v>2.4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>15</v>
       </c>
       <c r="T21" t="s">
         <v>17</v>
@@ -2625,16 +2562,13 @@
         <v>21</v>
       </c>
       <c r="W21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X21" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2679,20 +2613,20 @@
         <f t="shared" si="0"/>
         <v>1.8427999999999999E-4</v>
       </c>
-      <c r="O22">
-        <v>2.5</v>
-      </c>
-      <c r="P22" t="b">
+      <c r="O22" t="b">
         <v>1</v>
       </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
       <c r="Q22">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R22">
-        <v>-2.4</v>
-      </c>
-      <c r="S22">
         <v>2.4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>15</v>
       </c>
       <c r="T22" t="s">
         <v>17</v>
@@ -2704,16 +2638,13 @@
         <v>21</v>
       </c>
       <c r="W22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X22" t="s">
         <v>25</v>
       </c>
-      <c r="Y22" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2758,20 +2689,20 @@
         <f t="shared" si="0"/>
         <v>1.3278000000000001E-4</v>
       </c>
-      <c r="O23">
-        <v>2.5</v>
-      </c>
-      <c r="P23" t="b">
+      <c r="O23" t="b">
         <v>1</v>
       </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
       <c r="Q23">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R23">
-        <v>-2.4</v>
-      </c>
-      <c r="S23">
         <v>2.4</v>
+      </c>
+      <c r="S23" t="s">
+        <v>15</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -2783,16 +2714,13 @@
         <v>21</v>
       </c>
       <c r="W23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X23" t="s">
         <v>25</v>
       </c>
-      <c r="Y23" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2837,20 +2765,20 @@
         <f t="shared" si="0"/>
         <v>8.4048000000000006E-5</v>
       </c>
-      <c r="O24">
-        <v>2.5</v>
-      </c>
-      <c r="P24" t="b">
+      <c r="O24" t="b">
         <v>1</v>
       </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
       <c r="Q24">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R24">
-        <v>-2.4</v>
-      </c>
-      <c r="S24">
         <v>2.4</v>
+      </c>
+      <c r="S24" t="s">
+        <v>15</v>
       </c>
       <c r="T24" t="s">
         <v>17</v>
@@ -2862,16 +2790,13 @@
         <v>21</v>
       </c>
       <c r="W24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X24" t="s">
         <v>25</v>
       </c>
-      <c r="Y24" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2916,20 +2841,20 @@
         <f t="shared" si="0"/>
         <v>5.6378999999999997E-5</v>
       </c>
-      <c r="O25">
-        <v>2.5</v>
-      </c>
-      <c r="P25" t="b">
+      <c r="O25" t="b">
         <v>1</v>
       </c>
+      <c r="P25">
+        <v>25</v>
+      </c>
       <c r="Q25">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R25">
-        <v>-2.4</v>
-      </c>
-      <c r="S25">
         <v>2.4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>15</v>
       </c>
       <c r="T25" t="s">
         <v>17</v>
@@ -2941,16 +2866,13 @@
         <v>21</v>
       </c>
       <c r="W25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X25" t="s">
         <v>25</v>
       </c>
-      <c r="Y25" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2995,20 +2917,20 @@
         <f t="shared" si="0"/>
         <v>3.3936000000000002E-5</v>
       </c>
-      <c r="O26">
-        <v>2.5</v>
-      </c>
-      <c r="P26" t="b">
+      <c r="O26" t="b">
         <v>1</v>
       </c>
+      <c r="P26">
+        <v>25</v>
+      </c>
       <c r="Q26">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R26">
-        <v>-2.4</v>
-      </c>
-      <c r="S26">
         <v>2.4</v>
+      </c>
+      <c r="S26" t="s">
+        <v>15</v>
       </c>
       <c r="T26" t="s">
         <v>17</v>
@@ -3020,16 +2942,13 @@
         <v>21</v>
       </c>
       <c r="W26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X26" t="s">
         <v>25</v>
       </c>
-      <c r="Y26" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3074,20 +2993,20 @@
         <f t="shared" si="0"/>
         <v>1.8204000000000001E-5</v>
       </c>
-      <c r="O27">
-        <v>2.5</v>
-      </c>
-      <c r="P27" t="b">
+      <c r="O27" t="b">
         <v>1</v>
       </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
       <c r="Q27">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R27">
-        <v>-2.4</v>
-      </c>
-      <c r="S27">
         <v>2.4</v>
+      </c>
+      <c r="S27" t="s">
+        <v>15</v>
       </c>
       <c r="T27" t="s">
         <v>17</v>
@@ -3099,16 +3018,13 @@
         <v>21</v>
       </c>
       <c r="W27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X27" t="s">
         <v>25</v>
       </c>
-      <c r="Y27" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3153,20 +3069,20 @@
         <f t="shared" si="0"/>
         <v>8.9974999999999998E-6</v>
       </c>
-      <c r="O28">
-        <v>2.5</v>
-      </c>
-      <c r="P28" t="b">
+      <c r="O28" t="b">
         <v>1</v>
       </c>
+      <c r="P28">
+        <v>25</v>
+      </c>
       <c r="Q28">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R28">
-        <v>-2.4</v>
-      </c>
-      <c r="S28">
         <v>2.4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>15</v>
       </c>
       <c r="T28" t="s">
         <v>17</v>
@@ -3178,16 +3094,13 @@
         <v>21</v>
       </c>
       <c r="W28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X28" t="s">
         <v>25</v>
       </c>
-      <c r="Y28" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3232,20 +3145,20 @@
         <f t="shared" si="0"/>
         <v>4.1366999999999997E-6</v>
       </c>
-      <c r="O29">
-        <v>2.5</v>
-      </c>
-      <c r="P29" t="b">
+      <c r="O29" t="b">
         <v>1</v>
       </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
       <c r="Q29">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R29">
-        <v>-2.4</v>
-      </c>
-      <c r="S29">
         <v>2.4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>15</v>
       </c>
       <c r="T29" t="s">
         <v>17</v>
@@ -3257,16 +3170,13 @@
         <v>21</v>
       </c>
       <c r="W29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X29" t="s">
         <v>25</v>
       </c>
-      <c r="Y29" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3311,20 +3221,20 @@
         <f t="shared" si="0"/>
         <v>2.2380999999999998E-6</v>
       </c>
-      <c r="O30">
-        <v>2.5</v>
-      </c>
-      <c r="P30" t="b">
+      <c r="O30" t="b">
         <v>1</v>
       </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
       <c r="Q30">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R30">
-        <v>-2.4</v>
-      </c>
-      <c r="S30">
         <v>2.4</v>
+      </c>
+      <c r="S30" t="s">
+        <v>15</v>
       </c>
       <c r="T30" t="s">
         <v>17</v>
@@ -3336,16 +3246,13 @@
         <v>21</v>
       </c>
       <c r="W30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X30" t="s">
         <v>25</v>
       </c>
-      <c r="Y30" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3390,20 +3297,20 @@
         <f t="shared" si="0"/>
         <v>1.5695E-6</v>
       </c>
-      <c r="O31">
-        <v>2.5</v>
-      </c>
-      <c r="P31" t="b">
+      <c r="O31" t="b">
         <v>1</v>
       </c>
+      <c r="P31">
+        <v>25</v>
+      </c>
       <c r="Q31">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R31">
-        <v>-2.4</v>
-      </c>
-      <c r="S31">
         <v>2.4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>15</v>
       </c>
       <c r="T31" t="s">
         <v>17</v>
@@ -3415,16 +3322,13 @@
         <v>21</v>
       </c>
       <c r="W31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X31" t="s">
         <v>25</v>
       </c>
-      <c r="Y31" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3469,20 +3373,20 @@
         <f t="shared" si="0"/>
         <v>1.0405E-6</v>
       </c>
-      <c r="O32">
-        <v>2.5</v>
-      </c>
-      <c r="P32" t="b">
+      <c r="O32" t="b">
         <v>1</v>
       </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
       <c r="Q32">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R32">
-        <v>-2.4</v>
-      </c>
-      <c r="S32">
         <v>2.4</v>
+      </c>
+      <c r="S32" t="s">
+        <v>15</v>
       </c>
       <c r="T32" t="s">
         <v>17</v>
@@ -3494,16 +3398,13 @@
         <v>21</v>
       </c>
       <c r="W32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X32" t="s">
         <v>25</v>
       </c>
-      <c r="Y32" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3548,20 +3449,20 @@
         <f t="shared" si="0"/>
         <v>5.9124999999999995E-7</v>
       </c>
-      <c r="O33">
-        <v>2.5</v>
-      </c>
-      <c r="P33" t="b">
+      <c r="O33" t="b">
         <v>1</v>
       </c>
+      <c r="P33">
+        <v>25</v>
+      </c>
       <c r="Q33">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R33">
-        <v>-2.4</v>
-      </c>
-      <c r="S33">
         <v>2.4</v>
+      </c>
+      <c r="S33" t="s">
+        <v>15</v>
       </c>
       <c r="T33" t="s">
         <v>17</v>
@@ -3573,16 +3474,13 @@
         <v>21</v>
       </c>
       <c r="W33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X33" t="s">
         <v>25</v>
       </c>
-      <c r="Y33" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3627,20 +3525,20 @@
         <f t="shared" si="0"/>
         <v>2.2699E-7</v>
       </c>
-      <c r="O34">
-        <v>2.5</v>
-      </c>
-      <c r="P34" t="b">
+      <c r="O34" t="b">
         <v>1</v>
       </c>
+      <c r="P34">
+        <v>25</v>
+      </c>
       <c r="Q34">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R34">
-        <v>-2.4</v>
-      </c>
-      <c r="S34">
         <v>2.4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>15</v>
       </c>
       <c r="T34" t="s">
         <v>17</v>
@@ -3652,16 +3550,13 @@
         <v>21</v>
       </c>
       <c r="W34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X34" t="s">
         <v>25</v>
       </c>
-      <c r="Y34" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3706,20 +3601,20 @@
         <f t="shared" si="0"/>
         <v>9.2396000000000002E-9</v>
       </c>
-      <c r="O35">
-        <v>2.5</v>
-      </c>
-      <c r="P35" t="b">
+      <c r="O35" t="b">
         <v>1</v>
       </c>
+      <c r="P35">
+        <v>25</v>
+      </c>
       <c r="Q35">
-        <v>25</v>
+        <v>-2.4</v>
       </c>
       <c r="R35">
-        <v>-2.4</v>
-      </c>
-      <c r="S35">
         <v>2.4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>15</v>
       </c>
       <c r="T35" t="s">
         <v>17</v>
@@ -3731,13 +3626,10 @@
         <v>21</v>
       </c>
       <c r="W35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X35" t="s">
         <v>25</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/dy_qT/expdata/10004.xlsx
+++ b/dy_qT/expdata/10004.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0416F4D-93DF-7F46-AD62-471263612CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBDA61-0F65-2442-9A73-CE69A9993402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="31">
   <si>
     <t>FiducialCuts</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>tot_u</t>
+  </si>
+  <si>
+    <t>leptons</t>
+  </si>
+  <si>
+    <t>dressed</t>
   </si>
 </sst>
 </file>
@@ -966,15 +972,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1047,8 +1056,11 @@
       <c r="X1" t="s">
         <v>24</v>
       </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1123,8 +1135,11 @@
       <c r="X2" t="s">
         <v>25</v>
       </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1199,8 +1214,11 @@
       <c r="X3" t="s">
         <v>25</v>
       </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="1">SQRT(169000000)</f>
         <v>13000</v>
@@ -1275,8 +1293,11 @@
       <c r="X4" t="s">
         <v>25</v>
       </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1351,8 +1372,11 @@
       <c r="X5" t="s">
         <v>25</v>
       </c>
+      <c r="Y5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1427,8 +1451,11 @@
       <c r="X6" t="s">
         <v>25</v>
       </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1503,8 +1530,11 @@
       <c r="X7" t="s">
         <v>25</v>
       </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1579,8 +1609,11 @@
       <c r="X8" t="s">
         <v>25</v>
       </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1655,8 +1688,11 @@
       <c r="X9" t="s">
         <v>25</v>
       </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1731,8 +1767,11 @@
       <c r="X10" t="s">
         <v>25</v>
       </c>
+      <c r="Y10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1807,8 +1846,11 @@
       <c r="X11" t="s">
         <v>25</v>
       </c>
+      <c r="Y11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1883,8 +1925,11 @@
       <c r="X12" t="s">
         <v>25</v>
       </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1959,8 +2004,11 @@
       <c r="X13" t="s">
         <v>25</v>
       </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2035,8 +2083,11 @@
       <c r="X14" t="s">
         <v>25</v>
       </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2111,8 +2162,11 @@
       <c r="X15" t="s">
         <v>25</v>
       </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2187,8 +2241,11 @@
       <c r="X16" t="s">
         <v>25</v>
       </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2263,8 +2320,11 @@
       <c r="X17" t="s">
         <v>25</v>
       </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2339,8 +2399,11 @@
       <c r="X18" t="s">
         <v>25</v>
       </c>
+      <c r="Y18" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2415,8 +2478,11 @@
       <c r="X19" t="s">
         <v>25</v>
       </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2491,8 +2557,11 @@
       <c r="X20" t="s">
         <v>25</v>
       </c>
+      <c r="Y20" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2567,8 +2636,11 @@
       <c r="X21" t="s">
         <v>25</v>
       </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2643,8 +2715,11 @@
       <c r="X22" t="s">
         <v>25</v>
       </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2719,8 +2794,11 @@
       <c r="X23" t="s">
         <v>25</v>
       </c>
+      <c r="Y23" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2795,8 +2873,11 @@
       <c r="X24" t="s">
         <v>25</v>
       </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2871,8 +2952,11 @@
       <c r="X25" t="s">
         <v>25</v>
       </c>
+      <c r="Y25" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2947,8 +3031,11 @@
       <c r="X26" t="s">
         <v>25</v>
       </c>
+      <c r="Y26" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3023,8 +3110,11 @@
       <c r="X27" t="s">
         <v>25</v>
       </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3099,8 +3189,11 @@
       <c r="X28" t="s">
         <v>25</v>
       </c>
+      <c r="Y28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3175,8 +3268,11 @@
       <c r="X29" t="s">
         <v>25</v>
       </c>
+      <c r="Y29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3251,8 +3347,11 @@
       <c r="X30" t="s">
         <v>25</v>
       </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3327,8 +3426,11 @@
       <c r="X31" t="s">
         <v>25</v>
       </c>
+      <c r="Y31" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3403,8 +3505,11 @@
       <c r="X32" t="s">
         <v>25</v>
       </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3479,8 +3584,11 @@
       <c r="X33" t="s">
         <v>25</v>
       </c>
+      <c r="Y33" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3555,8 +3663,11 @@
       <c r="X34" t="s">
         <v>25</v>
       </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3630,6 +3741,9 @@
       </c>
       <c r="X35" t="s">
         <v>25</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
